--- a/licensedocs/certificate.xlsx
+++ b/licensedocs/certificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciradukunda/Documents/WORK/ElicenseUAT/license-management-system-frontend/licensedocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A96FCF-086B-9240-B71D-C27CAF192809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B470C-EA0D-3243-B857-21EF4EAFA90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18180" xr2:uid="{7914EAF3-C384-784C-8F99-7FBB6D8B84CB}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>DigiCert</t>
   </si>
   <si>
-    <t>Security certificate</t>
-  </si>
-  <si>
-    <t>RIPPS certificate</t>
-  </si>
-  <si>
     <t>RIPPS_CERTIFICATE</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>expiration_date</t>
+  </si>
+  <si>
+    <t>Security certificatess</t>
+  </si>
+  <si>
+    <t>RIPPS certificatess</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -526,7 +526,7 @@
         <v>46219</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/licensedocs/certificate.xlsx
+++ b/licensedocs/certificate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciradukunda/Documents/WORK/ElicenseUAT/license-management-system-frontend/licensedocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B470C-EA0D-3243-B857-21EF4EAFA90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC523A34-D3AE-CB49-9046-86729BD9BEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18180" xr2:uid="{7914EAF3-C384-784C-8F99-7FBB6D8B84CB}"/>
   </bookViews>
@@ -44,18 +44,12 @@
     <t>certificate_type</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>user_organization</t>
   </si>
   <si>
-    <t>SSL_CERTIFICATE</t>
-  </si>
-  <si>
     <t>test certificate upload</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>RIPPS certificatess</t>
+  </si>
+  <si>
+    <t>NORMAL_CERTIFICATE</t>
+  </si>
+  <si>
+    <t>department_id</t>
   </si>
 </sst>
 </file>
@@ -113,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +454,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,39 +463,40 @@
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>45763</v>
@@ -503,21 +505,21 @@
         <v>45854</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>45734</v>
@@ -526,13 +528,13 @@
         <v>46219</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
